--- a/output/Mini_Project.xlsx
+++ b/output/Mini_Project.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Flight Name</t>
   </si>
@@ -20,39 +20,32 @@
     <t>Price</t>
   </si>
   <si>
+    <t>Indigo
+6E- 361</t>
+  </si>
+  <si>
+    <t>14,414</t>
+  </si>
+  <si>
+    <t>Indigo
+6E- 282</t>
+  </si>
+  <si>
+    <t>14,071</t>
+  </si>
+  <si>
+    <t>Air India
+AI-535</t>
+  </si>
+  <si>
+    <t>13,614</t>
+  </si>
+  <si>
     <t>Vistara
-UK-815</t>
+UK-813</t>
   </si>
   <si>
     <t>12,048</t>
-  </si>
-  <si>
-    <t>Indigo
-6E- 203</t>
-  </si>
-  <si>
-    <t>11,647</t>
-  </si>
-  <si>
-    <t>Vistara
-UK-847</t>
-  </si>
-  <si>
-    <t>10,780</t>
-  </si>
-  <si>
-    <t>SpiceJet
-SG-8152</t>
-  </si>
-  <si>
-    <t>10,360</t>
-  </si>
-  <si>
-    <t>Air India
-AI-401</t>
-  </si>
-  <si>
-    <t>10,254</t>
   </si>
 </sst>
 </file>
@@ -137,18 +130,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
